--- a/data/Rivers/PorewaatusHuntervilleSTP_c1acec0f34.xlsx
+++ b/data/Rivers/PorewaatusHuntervilleSTP_c1acec0f34.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -523,7 +523,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -554,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -585,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -647,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -678,7 +678,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -709,7 +709,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -740,7 +740,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -802,7 +802,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -833,7 +833,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -864,7 +864,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -895,7 +895,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -926,7 +926,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -957,7 +957,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -988,7 +988,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -2755,7 +2755,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -2879,7 +2879,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -2972,7 +2972,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3220,7 +3220,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3282,7 +3282,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -3313,7 +3313,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -3623,7 +3623,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -3685,7 +3685,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
